--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1528.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1528.xlsx
@@ -354,7 +354,7 @@
         <v>1.927905185972408</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.850014346047039</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1528.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1528.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.241843233274997</v>
+        <v>1.994735717773438</v>
       </c>
       <c r="B1">
-        <v>1.927905185972408</v>
+        <v>5.216355800628662</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.918453931808472</v>
       </c>
       <c r="D1">
-        <v>1.850014346047039</v>
+        <v>1.179003357887268</v>
       </c>
       <c r="E1">
-        <v>0.9600026016186275</v>
+        <v>0.8124327659606934</v>
       </c>
     </row>
   </sheetData>
